--- a/v1/address.xlsx
+++ b/v1/address.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -362,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,6 +391,12 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
